--- a/02-Истина--Ложь--Если/3-если(и).xlsx
+++ b/02-Истина--Ложь--Если/3-если(и).xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11472" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8448"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$441</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1580,17 +1583,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,6 +1597,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1927,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,16 +1973,16 @@
         <f>IF(AND(B2&gt;=50%,C2&gt;=5),"Проходной","Непроходной")</f>
         <v>Проходной</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1995,18 +1998,18 @@
         <f t="shared" ref="D3:D66" si="0">IF(AND(B3&gt;=50%,C3&gt;=5),"Проходной","Непроходной")</f>
         <v>Непроходной</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2022,16 +2025,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2047,16 +2050,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2072,16 +2075,16 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2097,16 +2100,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2122,16 +2125,16 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2147,16 +2150,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -2172,16 +2175,16 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -2197,16 +2200,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2222,16 +2225,16 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2247,16 +2250,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2272,14 +2275,14 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2295,14 +2298,14 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2318,14 +2321,14 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -2341,19 +2344,19 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <f>COUNTIF(D2:D441,"Проходной")</f>
         <v>160</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -2369,19 +2372,19 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <f>COUNTIF(D2:D441,"Непроходной")</f>
         <v>280</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -2397,14 +2400,14 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -2420,16 +2423,16 @@
         <f t="shared" si="0"/>
         <v>Непроходной</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -2475,16 +2478,16 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="8" t="s">
         <v>452</v>
       </c>
     </row>
@@ -2502,19 +2505,19 @@
         <f t="shared" si="0"/>
         <v>Проходной</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <f>COUNTIF(D2:D441,$G$23)</f>
         <v>160</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="10">
         <f>COUNTIF(D2:D441,$H$23)</f>
         <v>280</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <f>COUNTA(A:A)-1</f>
         <v>440</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <f>G24/I24</f>
         <v>0.36363636363636365</v>
       </c>
@@ -8775,6 +8778,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D441"/>
   <mergeCells count="5">
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="H20:L20"/>
